--- a/biology/Zoologie/Ceratosauridae/Ceratosauridae.xlsx
+++ b/biology/Zoologie/Ceratosauridae/Ceratosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratosauridae (les cératosauridés), est une famille de dinosaures théropodes appartenant à l'infra-ordre (ou à la super-famille selon les classifications) des Ceratosauria (les cératosauriens).
 La famille comprenait autrefois 3 genres valides :
@@ -519,7 +531,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Othniel Charles Marsh avait nommé en 1884 la famille des Ceratosauridae pour contenir ce qu'il considérait l'espèce type Ceratosaurus nasicornis.
 Depuis lors, un petit nombre de genres ont été extraits de cette famille, y compris Ceratosaurus.
@@ -554,7 +568,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de la rareté des fossiles de Genyodectes, il est difficile de discerner de possibles synapomorphies de cette famille par rapport aux autapomorphies de Ceratosaurus.
 Par exemple, le genre Ceratosaurus est différent des autres Ceratosauria par sa corne nasale, alors que pour le genre Genyodectes, les paléontologues n'ont trouvé qu'une mâchoire incomplète.
@@ -589,6 +605,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
